--- a/testing_block.xlsx
+++ b/testing_block.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26929"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="17">
   <si>
     <t>required_response</t>
   </si>
@@ -71,6 +71,9 @@
   <si>
     <t>cb</t>
   </si>
+  <si>
+    <t>bc</t>
+  </si>
 </sst>
 </file>
 
@@ -111,8 +114,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="863">
+  <cellStyleXfs count="867">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -987,7 +994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="863">
+  <cellStyles count="867">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1419,6 +1426,8 @@
     <cellStyle name="Followed Hyperlink" xfId="858" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="860" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="866" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1850,6 +1859,8 @@
     <cellStyle name="Hyperlink" xfId="857" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="859" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="865" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2177,10 +2188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2392,6 +2403,186 @@
         <v>15</v>
       </c>
     </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
